--- a/CRISPRScreenAnalysis/PCR design Nextera-NovaSeq.xlsx
+++ b/CRISPRScreenAnalysis/PCR design Nextera-NovaSeq.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="99">
   <si>
     <t>CGTGAT</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>20ul</t>
-  </si>
-  <si>
-    <t>Program:</t>
   </si>
   <si>
     <t>PCR1:</t>
@@ -726,6 +723,12 @@
   </si>
   <si>
     <t>Internal Barcode</t>
+  </si>
+  <si>
+    <t>Program PCR1:</t>
+  </si>
+  <si>
+    <t>Program PCR2:</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1342,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,14 +1354,14 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -1383,10 +1386,10 @@
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>57</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -1400,10 +1403,10 @@
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>59</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -1417,7 +1420,7 @@
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>13</v>
@@ -1481,10 +1484,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="33" t="s">
         <v>60</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>61</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -1500,10 +1503,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -1519,10 +1522,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>64</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>65</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -1538,10 +1541,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>66</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>67</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -1557,10 +1560,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>69</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -1576,10 +1579,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>71</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
@@ -1595,10 +1598,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -1614,10 +1617,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
@@ -1633,10 +1636,10 @@
         <v>8</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>76</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>77</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
@@ -1652,10 +1655,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
@@ -1671,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
@@ -1690,10 +1693,10 @@
         <v>11</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -1707,10 +1710,10 @@
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
@@ -1723,7 +1726,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="13"/>
@@ -1742,7 +1745,7 @@
     </row>
     <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="30" t="s">
         <v>13</v>
@@ -1753,24 +1756,24 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1779,23 +1782,23 @@
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,7 +1809,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1814,21 +1817,21 @@
         <v>15</v>
       </c>
       <c r="B34" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,29 +1842,29 @@
         <v>19</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,78 +1875,78 @@
         <v>20</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="16"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,18 +1955,18 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1971,15 +1974,15 @@
         <v>15</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,23 +1990,23 @@
         <v>16</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,73 +2014,73 @@
         <v>17</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B64" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B66" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>41</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
